--- a/output/procedure_depth_summary.xlsx
+++ b/output/procedure_depth_summary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>batch.usp_efilecoversheet</t>
+          <t>batch.usp_startprocess</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -462,12 +462,15 @@
       </c>
       <c r="D2" t="n">
         <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>batch.usp_process_main_exchangeinfo</t>
+          <t>billing.usp_addnewagency</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -477,13 +480,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>batch.usp_process_main_loadmeterbills2</t>
+          <t>common.usp_coned_handleexchangedataissues</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -494,12 +500,15 @@
       </c>
       <c r="D4" t="n">
         <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>batch.usp_process_matchcoverletter</t>
+          <t>common.usp_processexchangedata</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -509,13 +518,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>batch.usp_process_nyparawdata</t>
+          <t>coned.archive_usp_processconedtransformmeterbillingdata</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -525,13 +537,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>batch.usp_startprocess</t>
+          <t>coned.usp_upload_18_processexchange</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -542,12 +557,15 @@
       </c>
       <c r="D7" t="n">
         <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>batch.usp_transformdata</t>
+          <t>coned.usp_upload_19_uploaddatatoec3</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -557,29 +575,35 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>billing.usp_addnewagency</t>
+          <t>coned.usp_upload_2_transformrawdata</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>billing.usp_turnoffaccountandrelatedmeters</t>
+          <t>crisnationalgridwest.usp_cris_spanparseandmergecancellationaccountbillingadjustmentrecords</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -590,12 +614,15 @@
       </c>
       <c r="D10" t="n">
         <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>billing.usp_updatebillingperiods</t>
+          <t>crisnationalgridwest.usp_cris_validateaccounttransactions</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -605,13 +632,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>budget.usp_create_actualexpendituredata</t>
+          <t>crisnationalgridwest.usp_processexchangeinfo</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -621,13 +651,16 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>common.copyconedsteamexchangedatatocommon_revert</t>
+          <t>dbo.aspnet_membership_createuser</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -637,32 +670,35 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>common.createrequestaccess</t>
+          <t>dbo.aspnet_personalizationadministration_deleteallstate</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>common.usp_coned_handleexchangedataissues</t>
+          <t>dbo.aspnet_personalizationadministration_findstate</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -673,12 +709,15 @@
       </c>
       <c r="D15" t="n">
         <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>common.usp_inactiveec3users</t>
+          <t>dbo.aspnet_personalizationadministration_getcountofstate</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -689,12 +728,15 @@
       </c>
       <c r="D16" t="n">
         <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>common.usp_processexchangedata</t>
+          <t>dbo.aspnet_personalizationadministration_resetsharedstate</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -704,13 +746,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>common.usp_setec3usersinactive</t>
+          <t>dbo.aspnet_personalizationadministration_resetuserstate</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -721,12 +766,15 @@
       </c>
       <c r="D18" t="n">
         <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>coned.archive_usp_processconedtransformmeterbillingdata</t>
+          <t>dbo.aspnet_personalizationallusers_getpagesettings</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -736,13 +784,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>coned.usp_upload_1_loadrawdata</t>
+          <t>dbo.aspnet_personalizationallusers_resetpagesettings</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -752,13 +803,16 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>coned.usp_upload_14_preparedatatransfer</t>
+          <t>dbo.aspnet_personalizationallusers_setpagesettings</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -769,12 +823,15 @@
       </c>
       <c r="D21" t="n">
         <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>coned.usp_upload_17_transferpreprocesseddataintogasschematables</t>
+          <t>dbo.aspnet_personalizationperuser_getpagesettings</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -785,12 +842,15 @@
       </c>
       <c r="D22" t="n">
         <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>coned.usp_upload_18_processexchange</t>
+          <t>dbo.aspnet_personalizationperuser_resetpagesettings</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -801,12 +861,15 @@
       </c>
       <c r="D23" t="n">
         <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>coned.usp_upload_19_uploaddatatoec3</t>
+          <t>dbo.aspnet_personalizationperuser_setpagesettings</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -816,32 +879,35 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>coned.usp_upload_2_transformrawdata</t>
+          <t>dbo.aspnet_profile_setproperties</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>crisnationalgridwest.usp_cris_spanparseandmergecancellationaccountbillingadjustmentrecords</t>
+          <t>dbo.aspnet_roles_createrole</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -852,28 +918,34 @@
       </c>
       <c r="D26" t="n">
         <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>crisnationalgridwest.usp_cris_validateaccounttransactions</t>
+          <t>dbo.usp_spaceusedanalyzer</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>crisnationalgridwest.usp_processexchangeinfo</t>
+          <t>gas.usp_processcommonelectronicgasunknownexchangedatabycursor</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -883,29 +955,35 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dbo.aspnet_membership_createuser</t>
+          <t>nationalgridwest.usp_legacydata_main_processlegacynationalgriddata</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_deleteallstate</t>
+          <t>nationalgridwest.usp_legacydata_processaccountcancellationspanned</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -916,12 +994,15 @@
       </c>
       <c r="D30" t="n">
         <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_findstate</t>
+          <t>nationalgridwest.usp_legacydata_processaccountspanned</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -932,12 +1013,15 @@
       </c>
       <c r="D31" t="n">
         <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_getcountofstate</t>
+          <t>nationalgridwest.usp_legacydata_processmetercancellationspanned</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -948,12 +1032,15 @@
       </c>
       <c r="D32" t="n">
         <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_resetsharedstate</t>
+          <t>nationalgridwest.usp_legacydata_processmeterspanned</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -964,12 +1051,15 @@
       </c>
       <c r="D33" t="n">
         <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_resetuserstate</t>
+          <t>nationalgridwest.usp_legacydata_processmeterunspanned</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -980,12 +1070,15 @@
       </c>
       <c r="D34" t="n">
         <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationallusers_getpagesettings</t>
+          <t>nypa.usp_processexchangeinfo</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -996,12 +1089,15 @@
       </c>
       <c r="D35" t="n">
         <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationallusers_resetpagesettings</t>
+          <t>nypa.usp_processnypatransformuploadeddata</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1011,13 +1107,16 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationallusers_setpagesettings</t>
+          <t>published.usp_afterpublishingdashboardandreporttablesrefresh</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1027,13 +1126,16 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationperuser_getpagesettings</t>
+          <t>published.usp_agency_overview</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1044,12 +1146,15 @@
       </c>
       <c r="D38" t="n">
         <v>1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationperuser_resetpagesettings</t>
+          <t>published.usp_createpublishedtablesfromviewsforcurrentbillingperiod</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1059,13 +1164,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationperuser_setpagesettings</t>
+          <t>published.usp_facility_overview</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1075,13 +1183,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>dbo.aspnet_profile_deleteprofiles</t>
+          <t>published.usp_globalsearch</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1092,12 +1203,15 @@
       </c>
       <c r="D41" t="n">
         <v>1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dbo.aspnet_profile_setproperties</t>
+          <t>report.customreportexport</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1107,13 +1221,16 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dbo.aspnet_roles_createrole</t>
+          <t>report.usp_accountinformationbyaccountnumber</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1124,25 +1241,34 @@
       </c>
       <c r="D43" t="n">
         <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>dbo.usp_spaceusedanalyzer</t>
+          <t>report.usp_accountlevelbillinghistory</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>gas.usp_processcommonelectronicgasunknownexchangedatabycursor</t>
+          <t>report.usp_accountlistfortariffreportexport</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1153,12 +1279,15 @@
       </c>
       <c r="D45" t="n">
         <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>manualbill.usp_main_processmanualbillingdata</t>
+          <t>report.usp_activeaccountsbyagency</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1168,13 +1297,16 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_cris_main_processdata</t>
+          <t>report.usp_activeaccountsbyagency_upgrade</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1184,32 +1316,35 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_main_processlegacynationalgriddata</t>
+          <t>report.usp_activeenergyaccountmeterlist</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processaccountcancellationspanned</t>
+          <t>report.usp_agencyleveladjustmentsbybillingperiod</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1220,12 +1355,15 @@
       </c>
       <c r="D49" t="n">
         <v>1</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processaccountspanned</t>
+          <t>report.usp_dataexport_accountadjustment</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1236,12 +1374,15 @@
       </c>
       <c r="D50" t="n">
         <v>1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processmetercancellationspanned</t>
+          <t>report.usp_dataexport_accountreviewforclosure</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1252,12 +1393,15 @@
       </c>
       <c r="D51" t="n">
         <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processmetercancellationunspanned</t>
+          <t>report.usp_dataexport_accountwithestimatedreading</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1268,12 +1412,15 @@
       </c>
       <c r="D52" t="n">
         <v>1</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processmeterspanned</t>
+          <t>report.usp_dataexport_accountwithloadfactorlargerthanone</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1284,12 +1431,15 @@
       </c>
       <c r="D53" t="n">
         <v>1</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processmeterunspanned</t>
+          <t>report.usp_dataexport_activeaccountmeterlist</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1299,17 +1449,20 @@
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>nypa.usp_processaccountbillingsetup</t>
+          <t>report.usp_dataexport_manualbillingcredittransfer</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -1318,13 +1471,13 @@
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>nypa.usp_processexchangeinfo</t>
+          <t>report.usp_dataexport_tariffchangetracking</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1335,12 +1488,15 @@
       </c>
       <c r="D56" t="n">
         <v>1</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>nypa.usp_processnypatransformuploadeddata</t>
+          <t>report.usp_getallfacilitieslinkedtoaproperty</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1350,13 +1506,16 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>nypa.usp_proratecustomerleveladjustments</t>
+          <t>report.usp_getallpropertieslinkedtoafacility</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1367,12 +1526,15 @@
       </c>
       <c r="D58" t="n">
         <v>1</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>published.usp_afterpublishingdashboardandreporttablesrefresh</t>
+          <t>report.usp_getheatingcoolingdegreedays_updated</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1382,13 +1544,16 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>published.usp_agency_overview</t>
+          <t>report.usp_getmonthlyagencyfacilitydata</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1399,31 +1564,34 @@
       </c>
       <c r="D60" t="n">
         <v>1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>published.usp_createpublishedtablesfromviewsforcurrentbillingperiod</t>
+          <t>report.usp_getmonthlyagencyfacilitydatafor12months</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>published.usp_facility_overview</t>
+          <t>report.usp_getmonthlyfacilitydatabysubtype</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1434,12 +1602,15 @@
       </c>
       <c r="D62" t="n">
         <v>1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>published.usp_globalsearch</t>
+          <t>report.usp_heatingcoolingdegreedays_export</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1450,12 +1621,15 @@
       </c>
       <c r="D63" t="n">
         <v>1</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>report.customreportexport</t>
+          <t>report.usp_loadfactor_getaccountloadfactorinformation</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1466,12 +1640,15 @@
       </c>
       <c r="D64" t="n">
         <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>report.usp_accountinformationbyaccountnumber</t>
+          <t>report.usp_loadfactor_getaccountloadfactorinformation_upgrade</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1482,12 +1659,15 @@
       </c>
       <c r="D65" t="n">
         <v>1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>report.usp_accountlevelbillinghistory</t>
+          <t>report.usp_loadfactor_getaccountloadfactorinformationexport</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1498,12 +1678,15 @@
       </c>
       <c r="D66" t="n">
         <v>1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>report.usp_accountlistfortariffreportexport</t>
+          <t>report.usp_loadfactor_getallaccountloadfactorinformation</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1514,12 +1697,15 @@
       </c>
       <c r="D67" t="n">
         <v>1</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>report.usp_activeaccountsbyagency</t>
+          <t>report.usp_lookup_accountinformation</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1530,12 +1716,15 @@
       </c>
       <c r="D68" t="n">
         <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>report.usp_activeaccountsbyagency_upgrade</t>
+          <t>report.usp_lookup_accountinformation_upgrade</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1546,12 +1735,15 @@
       </c>
       <c r="D69" t="n">
         <v>1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>report.usp_activeenergyaccountmeterlist</t>
+          <t>report.usp_lookup_facilityinformation</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1562,12 +1754,15 @@
       </c>
       <c r="D70" t="n">
         <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>report.usp_agencyleveladjustmentsbybillingperiod</t>
+          <t>report.usp_lookup_getaccountdetailfortariffreport</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1578,12 +1773,15 @@
       </c>
       <c r="D71" t="n">
         <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_accountadjustment</t>
+          <t>report.usp_lookup_getaccountdetailfortariffreport_updated</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1594,12 +1792,15 @@
       </c>
       <c r="D72" t="n">
         <v>1</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_accountreviewforclosure</t>
+          <t>report.usp_lookup_getaccountlistfortariffreport</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1610,12 +1811,15 @@
       </c>
       <c r="D73" t="n">
         <v>1</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_accountwithestimatedreading</t>
+          <t>report.usp_lookup_getaccountlistfortariffreport_updated</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1626,12 +1830,15 @@
       </c>
       <c r="D74" t="n">
         <v>1</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_accountwithloadfactorlargerthanone</t>
+          <t>report.usp_lookupagencyandfacilityinformation</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1642,12 +1849,15 @@
       </c>
       <c r="D75" t="n">
         <v>1</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_activeaccountmeterlist</t>
+          <t>report.usp_lookupagencyandfacilityinformation_updated</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1658,12 +1868,15 @@
       </c>
       <c r="D76" t="n">
         <v>1</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_manualbillingcredittransfer</t>
+          <t>report.usp_monthlyagencydatabyenergytype</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1674,12 +1887,15 @@
       </c>
       <c r="D77" t="n">
         <v>1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_tariffchangetracking</t>
+          <t>report.usp_monthlyagencydatabyenergytype_export</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1690,12 +1906,15 @@
       </c>
       <c r="D78" t="n">
         <v>1</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>report.usp_getallfacilitieslinkedtoaproperty</t>
+          <t>report.usp_nypa_actualandminimumdemandbilling</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1706,12 +1925,15 @@
       </c>
       <c r="D79" t="n">
         <v>1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>report.usp_getallpropertieslinkedtoafacility</t>
+          <t>report.usp_published_accountandmeterlisting</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1722,12 +1944,15 @@
       </c>
       <c r="D80" t="n">
         <v>1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>report.usp_getheatingcoolingdegreedays_updated</t>
+          <t>report.usp_published_accountandmeterlisting_excelexport</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1738,12 +1963,15 @@
       </c>
       <c r="D81" t="n">
         <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>report.usp_getmonthlyagencyfacilitydata</t>
+          <t>report.usp_published_accountandmeterlisting_upgrade</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1754,12 +1982,15 @@
       </c>
       <c r="D82" t="n">
         <v>1</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>report.usp_getmonthlyagencyfacilitydatafor12months</t>
+          <t>report.usp_published_accountsbyutilitycompanyandserviceclass</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1770,12 +2001,15 @@
       </c>
       <c r="D83" t="n">
         <v>1</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>report.usp_getmonthlyfacilitydatabysubtype</t>
+          <t>report.usp_published_activeaccountsnotbilledreport</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1786,12 +2020,15 @@
       </c>
       <c r="D84" t="n">
         <v>1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>report.usp_heatingcoolingdegreedays_export</t>
+          <t>report.usp_published_activeaccountswithnoactivemeters</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1802,12 +2039,15 @@
       </c>
       <c r="D85" t="n">
         <v>1</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>report.usp_loadfactor_getaccountloadfactorinformation</t>
+          <t>report.usp_published_agencyexceldata</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1818,12 +2058,15 @@
       </c>
       <c r="D86" t="n">
         <v>1</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>report.usp_loadfactor_getaccountloadfactorinformation_upgrade</t>
+          <t>report.usp_published_closedaccountsbilledreport</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1834,12 +2077,15 @@
       </c>
       <c r="D87" t="n">
         <v>1</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>report.usp_loadfactor_getaccountloadfactorinformationexport</t>
+          <t>report.usp_published_corereportcitywide</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1850,12 +2096,15 @@
       </c>
       <c r="D88" t="n">
         <v>1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>report.usp_loadfactor_getallaccountloadfactorinformation</t>
+          <t>report.usp_published_corereportreportaccountlevel</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1866,12 +2115,15 @@
       </c>
       <c r="D89" t="n">
         <v>1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>report.usp_lookup_accountinformation</t>
+          <t>report.usp_published_corereportreportaccountlevelsubreport</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1882,12 +2134,15 @@
       </c>
       <c r="D90" t="n">
         <v>1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>report.usp_lookup_accountinformation_upgrade</t>
+          <t>report.usp_published_corereportreportagencylevel</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1898,12 +2153,15 @@
       </c>
       <c r="D91" t="n">
         <v>1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>report.usp_lookup_facilityinformation</t>
+          <t>report.usp_published_currentperiodaccountmeterchanges</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1914,12 +2172,15 @@
       </c>
       <c r="D92" t="n">
         <v>1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>report.usp_lookup_getaccountdetailfortariffreport</t>
+          <t>report.usp_published_energychangereportallfacilities</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1930,12 +2191,15 @@
       </c>
       <c r="D93" t="n">
         <v>1</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>report.usp_lookup_getaccountdetailfortariffreport_updated</t>
+          <t>report.usp_published_energychangereportdataexport</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1946,12 +2210,15 @@
       </c>
       <c r="D94" t="n">
         <v>1</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>report.usp_lookup_getaccountlistfortariffreport</t>
+          <t>report.usp_published_energychangereportexcelexport</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1962,12 +2229,15 @@
       </c>
       <c r="D95" t="n">
         <v>1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>report.usp_lookup_getaccountlistfortariffreport_updated</t>
+          <t>report.usp_published_energycomparisondashboardreport_updated</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1978,12 +2248,15 @@
       </c>
       <c r="D96" t="n">
         <v>1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>report.usp_lookupagencyandfacilityinformation</t>
+          <t>report.usp_published_energycomparisonreportagencylevel_updated</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1994,12 +2267,15 @@
       </c>
       <c r="D97" t="n">
         <v>1</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>report.usp_lookupagencyandfacilityinformation_updated</t>
+          <t>report.usp_published_energycomparisonreportcitywide</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2010,12 +2286,15 @@
       </c>
       <c r="D98" t="n">
         <v>1</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>report.usp_monthlyagencydatabyenergytype</t>
+          <t>report.usp_published_energycomparisonreportcitywide_updated</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2026,12 +2305,15 @@
       </c>
       <c r="D99" t="n">
         <v>1</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>report.usp_monthlyagencydatabyenergytype_export</t>
+          <t>report.usp_published_energydeviationreport</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2042,12 +2324,15 @@
       </c>
       <c r="D100" t="n">
         <v>1</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>report.usp_nypa_actualandminimumdemandbilling</t>
+          <t>report.usp_published_energyparametersforcustomperiod</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2058,12 +2343,15 @@
       </c>
       <c r="D101" t="n">
         <v>1</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>report.usp_published_accountandmeterlisting</t>
+          <t>report.usp_published_energyparametersforcustomperiod_updated</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2074,12 +2362,15 @@
       </c>
       <c r="D102" t="n">
         <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>report.usp_published_accountandmeterlisting_excelexport</t>
+          <t>report.usp_published_estimatedmeterreadings</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2090,12 +2381,15 @@
       </c>
       <c r="D103" t="n">
         <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>report.usp_published_accountandmeterlisting_upgrade</t>
+          <t>report.usp_published_estimatedmeterreadings_upgrade</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2106,12 +2400,15 @@
       </c>
       <c r="D104" t="n">
         <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>report.usp_published_accountsbyutilitycompanyandserviceclass</t>
+          <t>report.usp_published_facilityexceldata</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2122,12 +2419,15 @@
       </c>
       <c r="D105" t="n">
         <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>report.usp_published_activeaccountsnotbilledreport</t>
+          <t>report.usp_published_facilityexceldata_upgrade</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2138,12 +2438,15 @@
       </c>
       <c r="D106" t="n">
         <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>report.usp_published_activeaccountswithnoactivemeters</t>
+          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2154,12 +2457,15 @@
       </c>
       <c r="D107" t="n">
         <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>report.usp_published_agencyexceldata</t>
+          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode_added_zecscharges</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2170,12 +2476,15 @@
       </c>
       <c r="D108" t="n">
         <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>report.usp_published_closedaccountsbilledreport</t>
+          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode_updated</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2186,12 +2495,15 @@
       </c>
       <c r="D109" t="n">
         <v>1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>report.usp_published_corereportcitywide</t>
+          <t>report.usp_published_getaccountinformationbyagencycode</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2202,12 +2514,15 @@
       </c>
       <c r="D110" t="n">
         <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>report.usp_published_corereportreportaccountlevel</t>
+          <t>report.usp_published_getmeterbillinghistoryinformation_excelexport</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2218,12 +2533,15 @@
       </c>
       <c r="D111" t="n">
         <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>report.usp_published_corereportreportaccountlevelsubreport</t>
+          <t>report.usp_published_getmeterextentedbillinginformation</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2234,12 +2552,15 @@
       </c>
       <c r="D112" t="n">
         <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>report.usp_published_corereportreportagencylevel</t>
+          <t>report.usp_published_getmeterextentedbillinginformation_updated</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2250,12 +2571,15 @@
       </c>
       <c r="D113" t="n">
         <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>report.usp_published_currentperiodaccountmeterchanges</t>
+          <t>report.usp_published_getmeterextentedbillinginformation_updated_backup_not_in_use</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2266,12 +2590,15 @@
       </c>
       <c r="D114" t="n">
         <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>report.usp_published_energychangereportallfacilities</t>
+          <t>report.usp_published_getmonthlyagencydata</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2282,12 +2609,15 @@
       </c>
       <c r="D115" t="n">
         <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>report.usp_published_energychangereportdataexport</t>
+          <t>report.usp_published_getmonthlyagencydataonly</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2298,12 +2628,15 @@
       </c>
       <c r="D116" t="n">
         <v>1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>report.usp_published_energychangereportexcelexport</t>
+          <t>report.usp_published_getmonthlyagencydataonly_desc</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2314,12 +2647,15 @@
       </c>
       <c r="D117" t="n">
         <v>1</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>report.usp_published_energycomparisondashboardreport_updated</t>
+          <t>report.usp_published_getmonthlyagencydataonly_upgrade</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2330,12 +2666,15 @@
       </c>
       <c r="D118" t="n">
         <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>report.usp_published_energycomparisonreportagencylevel_updated</t>
+          <t>report.usp_published_getmonthlyagencyfacilitydata</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2345,13 +2684,16 @@
         <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>report.usp_published_energycomparisonreportcitywide</t>
+          <t>report.usp_published_getmonthlyagencyfacilitydata12month</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2362,12 +2704,15 @@
       </c>
       <c r="D120" t="n">
         <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>report.usp_published_energycomparisonreportcitywide_updated</t>
+          <t>report.usp_published_getmonthlyagencyfacilitydata2</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2378,12 +2723,15 @@
       </c>
       <c r="D121" t="n">
         <v>1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>report.usp_published_energydeviationreport</t>
+          <t>report.usp_published_getmonthlycitywidesummarydata</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2394,12 +2742,15 @@
       </c>
       <c r="D122" t="n">
         <v>1</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>report.usp_published_energyparametersforcustomperiod</t>
+          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2410,12 +2761,15 @@
       </c>
       <c r="D123" t="n">
         <v>1</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>report.usp_published_energyparametersforcustomperiod_updated</t>
+          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype_corerepforselfac</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2426,12 +2780,15 @@
       </c>
       <c r="D124" t="n">
         <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>report.usp_published_estimatedmeterreadings</t>
+          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype_upgrade</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2442,12 +2799,15 @@
       </c>
       <c r="D125" t="n">
         <v>1</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>report.usp_published_estimatedmeterreadings_upgrade</t>
+          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytypethreefiscalyears</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2458,12 +2818,15 @@
       </c>
       <c r="D126" t="n">
         <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>report.usp_published_facilityexceldata</t>
+          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytypethreefiscalyears_updated</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2474,12 +2837,15 @@
       </c>
       <c r="D127" t="n">
         <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>report.usp_published_facilityexceldata_upgrade</t>
+          <t>report.usp_published_monthlyfacilitydata_export</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2490,12 +2856,15 @@
       </c>
       <c r="D128" t="n">
         <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode</t>
+          <t>report.usp_published_partiallookupaccountbillingallinfo</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2506,12 +2875,15 @@
       </c>
       <c r="D129" t="n">
         <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode_added_zecscharges</t>
+          <t>report.usp_published_partiallookupaccountbillingrevisedonly</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2522,12 +2894,15 @@
       </c>
       <c r="D130" t="n">
         <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode_updated</t>
+          <t>report.usp_published_partiallookupaccountbillingrevisedonly_upgrade</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2538,12 +2913,15 @@
       </c>
       <c r="D131" t="n">
         <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>report.usp_published_getaccountinformationbyagencycode</t>
+          <t>report.usp_published_partiallookupcurrentaccount</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2554,12 +2932,15 @@
       </c>
       <c r="D132" t="n">
         <v>1</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>report.usp_published_getmeterbillinghistoryinformation_excelexport</t>
+          <t>report.usp_published_usageanddemanddeviationreport</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2570,12 +2951,15 @@
       </c>
       <c r="D133" t="n">
         <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>report.usp_published_getmeterextentedbillinginformation</t>
+          <t>report.usp_published_usageanddemanddeviationreportdash</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2586,12 +2970,15 @@
       </c>
       <c r="D134" t="n">
         <v>1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>report.usp_published_getmeterextentedbillinginformation_updated</t>
+          <t>report.usp_reportparam_getuserfacilityaccessinxml</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2602,12 +2989,15 @@
       </c>
       <c r="D135" t="n">
         <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>report.usp_published_getmeterextentedbillinginformation_updated_backup_not_in_use</t>
+          <t>scheduler.usp_archivereport</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2618,12 +3008,15 @@
       </c>
       <c r="D136" t="n">
         <v>1</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlyagencydata</t>
+          <t>temporal.usp_processandinserttemporaldata</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2633,423 +3026,10 @@
         <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>report.usp_published_getmonthlyagencydataonly</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>2</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>report.usp_published_getmonthlyagencydataonly_desc</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>2</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>report.usp_published_getmonthlyagencydataonly_upgrade</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>report.usp_published_getmonthlyagencyfacilitydata</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>2</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>report.usp_published_getmonthlyagencyfacilitydata12month</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>2</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>report.usp_published_getmonthlyagencyfacilitydata2</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>2</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>report.usp_published_getmonthlycitywidesummarydata</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>2</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype_corerepforselfac</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>2</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype_upgrade</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytypethreefiscalyears</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>2</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytypethreefiscalyears_updated</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>report.usp_published_monthlyfacilitydata_export</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>2</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>report.usp_published_partiallookupaccountbillingallinfo</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>report.usp_published_partiallookupaccountbillingrevisedonly</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>2</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>report.usp_published_partiallookupaccountbillingrevisedonly_upgrade</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>report.usp_published_partiallookupcurrentaccount</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>report.usp_published_usageanddemanddeviationreport</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>report.usp_published_usageanddemanddeviationreportdash</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>report.usp_reportparam_getuserfacilityaccessinxml</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>2</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>scheduler.usp_addreporttodistributionjob</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>2</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>scheduler.usp_archivereport</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>2</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>scheduler.usp_getdistributionreports</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>2</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>scheduler.usp_updatecrystalreportindistriubtionjob</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>2</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>temporal.usp_processandinserttemporaldata</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>2</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
         <v>11</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>temporal.usp_removelastpublishedbillingperiodfromtemporal</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>2</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>11</v>
+      <c r="E137" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/procedure_depth_summary.xlsx
+++ b/output/procedure_depth_summary.xlsx
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>batch.usp_startprocess</t>
+          <t>Batch.usp_StartProcess</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -470,7 +470,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>billing.usp_addnewagency</t>
+          <t>Billing.usp_AddNewAgency</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -489,7 +489,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>common.usp_coned_handleexchangedataissues</t>
+          <t>Common.usp_CONED_HandleExchangeDataIssues</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -508,7 +508,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>common.usp_processexchangedata</t>
+          <t>Common.usp_ProcessExchangeData</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -527,7 +527,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>coned.archive_usp_processconedtransformmeterbillingdata</t>
+          <t>ConEd.Archive_usp_ProcessConEdTransformMeterBillingData</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -546,7 +546,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>coned.usp_upload_18_processexchange</t>
+          <t>ConEd.usp_Upload_18_ProcessExchange</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -565,7 +565,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>coned.usp_upload_19_uploaddatatoec3</t>
+          <t>ConEd.usp_Upload_19_UploadDataToEC3</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -584,7 +584,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>coned.usp_upload_2_transformrawdata</t>
+          <t>ConEd.usp_Upload_2_TransformRawData</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -603,7 +603,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>crisnationalgridwest.usp_cris_spanparseandmergecancellationaccountbillingadjustmentrecords</t>
+          <t>CrisNationalGridWest.usp_CRIS_SpanParseAndMergeCancellationAccountBillingAdjustmentRecords</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -622,7 +622,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>crisnationalgridwest.usp_cris_validateaccounttransactions</t>
+          <t>CrisNationalGridWest.usp_CRIS_ValidateAccountTransactions</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -641,7 +641,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>crisnationalgridwest.usp_processexchangeinfo</t>
+          <t>CrisNationalGridWest.usp_ProcessExchangeInfo</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -660,7 +660,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dbo.aspnet_membership_createuser</t>
+          <t>dbo.aspnet_Membership_CreateUser</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -679,7 +679,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_deleteallstate</t>
+          <t>dbo.aspnet_PersonalizationAdministration_DeleteAllState</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -698,7 +698,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_findstate</t>
+          <t>dbo.aspnet_PersonalizationAdministration_FindState</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -717,7 +717,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_getcountofstate</t>
+          <t>dbo.aspnet_PersonalizationAdministration_GetCountOfState</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -736,7 +736,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_resetsharedstate</t>
+          <t>dbo.aspnet_PersonalizationAdministration_ResetSharedState</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -755,7 +755,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationadministration_resetuserstate</t>
+          <t>dbo.aspnet_PersonalizationAdministration_ResetUserState</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -774,7 +774,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationallusers_getpagesettings</t>
+          <t>dbo.aspnet_PersonalizationAllUsers_GetPageSettings</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -793,7 +793,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationallusers_resetpagesettings</t>
+          <t>dbo.aspnet_PersonalizationAllUsers_ResetPageSettings</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -812,7 +812,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationallusers_setpagesettings</t>
+          <t>dbo.aspnet_PersonalizationAllUsers_SetPageSettings</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -831,7 +831,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationperuser_getpagesettings</t>
+          <t>dbo.aspnet_PersonalizationPerUser_GetPageSettings</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -850,7 +850,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationperuser_resetpagesettings</t>
+          <t>dbo.aspnet_PersonalizationPerUser_ResetPageSettings</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -869,7 +869,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dbo.aspnet_personalizationperuser_setpagesettings</t>
+          <t>dbo.aspnet_PersonalizationPerUser_SetPageSettings</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -888,7 +888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dbo.aspnet_profile_setproperties</t>
+          <t>dbo.aspnet_Profile_SetProperties</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -907,7 +907,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dbo.aspnet_roles_createrole</t>
+          <t>dbo.aspnet_Roles_CreateRole</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -926,7 +926,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dbo.usp_spaceusedanalyzer</t>
+          <t>dbo.usp_SpaceUsedAnalyzer</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -945,7 +945,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>gas.usp_processcommonelectronicgasunknownexchangedatabycursor</t>
+          <t>Gas.usp_ProcessCommonElectronicGasUnknownExchangeDataByCursor</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -964,7 +964,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_main_processlegacynationalgriddata</t>
+          <t>NationalGridWest.usp_LegacyData_Main_ProcessLegacyNationalGridData</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -983,7 +983,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processaccountcancellationspanned</t>
+          <t>NationalGridWest.usp_LegacyData_ProcessAccountCancellationSpanned</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1002,7 +1002,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processaccountspanned</t>
+          <t>NationalGridWest.usp_LegacyData_ProcessAccountSpanned</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1021,7 +1021,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processmetercancellationspanned</t>
+          <t>NationalGridWest.usp_LegacyData_ProcessMeterCancellationSpanned</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1040,7 +1040,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processmeterspanned</t>
+          <t>NationalGridWest.usp_LegacyData_ProcessMeterSpanned</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1059,7 +1059,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nationalgridwest.usp_legacydata_processmeterunspanned</t>
+          <t>NationalGridWest.usp_LegacyData_ProcessMeterUnspanned</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1078,7 +1078,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>nypa.usp_processexchangeinfo</t>
+          <t>Nypa.usp_ProcessExchangeInfo</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1097,7 +1097,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nypa.usp_processnypatransformuploadeddata</t>
+          <t>Nypa.usp_ProcessNYPATransformUploadedData</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1116,7 +1116,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>published.usp_afterpublishingdashboardandreporttablesrefresh</t>
+          <t>Published.usp_AfterPublishingDashboardAndReportTablesRefresh</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1135,7 +1135,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>published.usp_agency_overview</t>
+          <t>Published.usp_Agency_Overview</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1154,7 +1154,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>published.usp_createpublishedtablesfromviewsforcurrentbillingperiod</t>
+          <t>Published.usp_CreatePublishedTablesFromViewsForCurrentBillingPeriod</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1173,7 +1173,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>published.usp_facility_overview</t>
+          <t>Published.usp_Facility_Overview</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1192,7 +1192,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>published.usp_globalsearch</t>
+          <t>Published.usp_GlobalSearch</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1211,7 +1211,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>report.customreportexport</t>
+          <t>Report.CustomReportExport</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1230,7 +1230,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>report.usp_accountinformationbyaccountnumber</t>
+          <t>Report.usp_AccountInformationByAccountNumber</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1249,7 +1249,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>report.usp_accountlevelbillinghistory</t>
+          <t>Report.usp_AccountLevelBillingHistory</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1268,7 +1268,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>report.usp_accountlistfortariffreportexport</t>
+          <t>Report.usp_AccountListForTariffReportExport</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1287,7 +1287,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>report.usp_activeaccountsbyagency</t>
+          <t>Report.usp_ActiveAccountsByAgency</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1306,7 +1306,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>report.usp_activeaccountsbyagency_upgrade</t>
+          <t>Report.usp_ActiveAccountsByAgency_Upgrade</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1325,7 +1325,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>report.usp_activeenergyaccountmeterlist</t>
+          <t>Report.usp_ActiveEnergyAccountMeterList</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1344,7 +1344,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>report.usp_agencyleveladjustmentsbybillingperiod</t>
+          <t>Report.usp_AgencyLevelAdjustmentsByBillingPeriod</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1363,7 +1363,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_accountadjustment</t>
+          <t>Report.usp_DataExport_AccountAdjustment</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1382,7 +1382,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_accountreviewforclosure</t>
+          <t>Report.usp_DataExport_AccountReviewForClosure</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1401,7 +1401,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_accountwithestimatedreading</t>
+          <t>Report.usp_DataExport_AccountWithEstimatedReading</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1420,7 +1420,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_accountwithloadfactorlargerthanone</t>
+          <t>Report.usp_DataExport_AccountWithLoadFactorLargerThanOne</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1439,7 +1439,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_activeaccountmeterlist</t>
+          <t>Report.usp_DataExport_ActiveAccountMeterList</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1458,7 +1458,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_manualbillingcredittransfer</t>
+          <t>Report.usp_DataExport_ManualBillingCreditTransfer</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1477,7 +1477,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>report.usp_dataexport_tariffchangetracking</t>
+          <t>Report.usp_DataExport_TariffChangeTracking</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1496,7 +1496,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>report.usp_getallfacilitieslinkedtoaproperty</t>
+          <t>Report.usp_GetAllFacilitiesLinkedToAProperty</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1515,7 +1515,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>report.usp_getallpropertieslinkedtoafacility</t>
+          <t>Report.usp_GetAllPropertiesLinkedToAFacility</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1534,7 +1534,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>report.usp_getheatingcoolingdegreedays_updated</t>
+          <t>Report.usp_GetHeatingCoolingDegreeDays_Updated</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1553,7 +1553,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>report.usp_getmonthlyagencyfacilitydata</t>
+          <t>Report.usp_GetMonthlyAgencyFacilityData</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1572,7 +1572,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>report.usp_getmonthlyagencyfacilitydatafor12months</t>
+          <t>Report.usp_GetMonthlyAgencyFacilityDataFor12Months</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1591,7 +1591,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>report.usp_getmonthlyfacilitydatabysubtype</t>
+          <t>Report.usp_GetMonthlyFacilityDataBySubtype</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1610,7 +1610,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>report.usp_heatingcoolingdegreedays_export</t>
+          <t>Report.usp_HeatingCoolingDegreeDays_Export</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1629,7 +1629,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>report.usp_loadfactor_getaccountloadfactorinformation</t>
+          <t>Report.usp_LoadFactor_GetAccountLoadFactorInformation</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1648,7 +1648,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>report.usp_loadfactor_getaccountloadfactorinformation_upgrade</t>
+          <t>Report.usp_LoadFactor_GetAccountLoadFactorInformation_Upgrade</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1667,7 +1667,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>report.usp_loadfactor_getaccountloadfactorinformationexport</t>
+          <t>Report.usp_LoadFactor_GetAccountLoadFactorInformationExport</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1686,7 +1686,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>report.usp_loadfactor_getallaccountloadfactorinformation</t>
+          <t>Report.usp_LoadFactor_GetAllAccountLoadFactorInformation</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1705,7 +1705,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>report.usp_lookup_accountinformation</t>
+          <t>Report.usp_Lookup_AccountInformation</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1724,7 +1724,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>report.usp_lookup_accountinformation_upgrade</t>
+          <t>Report.usp_Lookup_AccountInformation_Upgrade</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1743,7 +1743,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>report.usp_lookup_facilityinformation</t>
+          <t>Report.usp_Lookup_FacilityInformation</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1762,7 +1762,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>report.usp_lookup_getaccountdetailfortariffreport</t>
+          <t>Report.usp_Lookup_GetAccountDetailForTariffReport</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1781,7 +1781,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>report.usp_lookup_getaccountdetailfortariffreport_updated</t>
+          <t>Report.usp_Lookup_GetAccountDetailForTariffReport_Updated</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1800,7 +1800,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>report.usp_lookup_getaccountlistfortariffreport</t>
+          <t>Report.usp_Lookup_GetAccountListForTariffReport</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1819,7 +1819,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>report.usp_lookup_getaccountlistfortariffreport_updated</t>
+          <t>Report.usp_Lookup_GetAccountListForTariffReport_Updated</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1838,7 +1838,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>report.usp_lookupagencyandfacilityinformation</t>
+          <t>Report.usp_LookupAgencyAndFacilityInformation</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1857,7 +1857,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>report.usp_lookupagencyandfacilityinformation_updated</t>
+          <t>Report.usp_LookupAgencyAndFacilityInformation_Updated</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1876,7 +1876,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>report.usp_monthlyagencydatabyenergytype</t>
+          <t>Report.usp_MonthlyAgencyDataByEnergyType</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1895,7 +1895,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>report.usp_monthlyagencydatabyenergytype_export</t>
+          <t>Report.usp_MonthlyAgencyDataByEnergyType_Export</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1914,7 +1914,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>report.usp_nypa_actualandminimumdemandbilling</t>
+          <t>Report.usp_NYPA_ActualAndMinimumDemandBilling</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1933,7 +1933,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>report.usp_published_accountandmeterlisting</t>
+          <t>Report.usp_Published_AccountAndMeterListing</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1952,7 +1952,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>report.usp_published_accountandmeterlisting_excelexport</t>
+          <t>Report.usp_Published_AccountAndMeterListing_ExcelExport</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1971,7 +1971,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>report.usp_published_accountandmeterlisting_upgrade</t>
+          <t>Report.usp_Published_AccountAndMeterListing_Upgrade</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1990,7 +1990,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>report.usp_published_accountsbyutilitycompanyandserviceclass</t>
+          <t>Report.usp_Published_AccountsByUtilityCompanyandServiceClass</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2009,7 +2009,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>report.usp_published_activeaccountsnotbilledreport</t>
+          <t>Report.usp_Published_ActiveAccountsNotBilledReport</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2028,7 +2028,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>report.usp_published_activeaccountswithnoactivemeters</t>
+          <t>Report.usp_Published_ActiveAccountsWithNoActiveMeters</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2047,7 +2047,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>report.usp_published_agencyexceldata</t>
+          <t>Report.usp_Published_AgencyExcelData</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2066,7 +2066,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>report.usp_published_closedaccountsbilledreport</t>
+          <t>Report.usp_Published_ClosedAccountsBilledReport</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2085,7 +2085,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>report.usp_published_corereportcitywide</t>
+          <t>Report.usp_Published_CoreReportCityWide</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2104,7 +2104,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>report.usp_published_corereportreportaccountlevel</t>
+          <t>Report.usp_Published_CoreReportReportAccountLevel</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2123,7 +2123,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>report.usp_published_corereportreportaccountlevelsubreport</t>
+          <t>Report.usp_Published_CoreReportReportAccountLevelSubReport</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2142,7 +2142,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>report.usp_published_corereportreportagencylevel</t>
+          <t>Report.usp_Published_CoreReportReportAgencyLevel</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2161,7 +2161,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>report.usp_published_currentperiodaccountmeterchanges</t>
+          <t>Report.usp_Published_CurrentPeriodAccountMeterchanges</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2180,7 +2180,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>report.usp_published_energychangereportallfacilities</t>
+          <t>Report.usp_Published_EnergyChangeReportAllFacilities</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2199,7 +2199,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>report.usp_published_energychangereportdataexport</t>
+          <t>Report.usp_Published_EnergyChangeReportDataExport</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2218,7 +2218,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>report.usp_published_energychangereportexcelexport</t>
+          <t>Report.usp_Published_EnergyChangeReportExcelExport</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2237,7 +2237,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>report.usp_published_energycomparisondashboardreport_updated</t>
+          <t>Report.usp_Published_EnergyComparisonDashboardReport_Updated</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2256,7 +2256,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>report.usp_published_energycomparisonreportagencylevel_updated</t>
+          <t>Report.usp_Published_EnergyComparisonReportAgencyLevel_Updated</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2275,7 +2275,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>report.usp_published_energycomparisonreportcitywide</t>
+          <t>Report.usp_Published_EnergyComparisonReportCityWide</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2294,7 +2294,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>report.usp_published_energycomparisonreportcitywide_updated</t>
+          <t>Report.usp_Published_EnergyComparisonReportCityWide_Updated</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2313,7 +2313,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>report.usp_published_energydeviationreport</t>
+          <t>Report.usp_Published_EnergyDeviationReport</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2332,7 +2332,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>report.usp_published_energyparametersforcustomperiod</t>
+          <t>Report.usp_Published_EnergyParametersForCustomPeriod</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2351,7 +2351,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>report.usp_published_energyparametersforcustomperiod_updated</t>
+          <t>Report.usp_Published_EnergyParametersForCustomPeriod_Updated</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2370,7 +2370,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>report.usp_published_estimatedmeterreadings</t>
+          <t>Report.usp_Published_EstimatedMeterReadings</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2389,7 +2389,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>report.usp_published_estimatedmeterreadings_upgrade</t>
+          <t>Report.usp_Published_EstimatedMeterReadings_Upgrade</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2408,7 +2408,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>report.usp_published_facilityexceldata</t>
+          <t>Report.usp_Published_FacilityExcelData</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2427,7 +2427,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>report.usp_published_facilityexceldata_upgrade</t>
+          <t>Report.usp_Published_FacilityExcelData_Upgrade</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2446,7 +2446,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode</t>
+          <t>Report.usp_Published_GetAccountExtentedBillingInformationByAgencyCode</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2465,7 +2465,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode_added_zecscharges</t>
+          <t>Report.usp_Published_GetAccountExtentedBillingInformationByAgencyCode_Added_ZecSCharges</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2484,7 +2484,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>report.usp_published_getaccountextentedbillinginformationbyagencycode_updated</t>
+          <t>Report.usp_Published_GetAccountExtentedBillingInformationByAgencyCode_Updated</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2503,7 +2503,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>report.usp_published_getaccountinformationbyagencycode</t>
+          <t>Report.usp_Published_GetAccountInformationByAgencyCode</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2522,7 +2522,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>report.usp_published_getmeterbillinghistoryinformation_excelexport</t>
+          <t>Report.usp_Published_GetMeterBillingHistoryInformation_ExcelExport</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2541,7 +2541,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>report.usp_published_getmeterextentedbillinginformation</t>
+          <t>Report.usp_Published_GetMeterExtentedBillingInformation</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2560,7 +2560,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>report.usp_published_getmeterextentedbillinginformation_updated</t>
+          <t>Report.usp_Published_GetMeterExtentedBillingInformation_Updated</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2579,7 +2579,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>report.usp_published_getmeterextentedbillinginformation_updated_backup_not_in_use</t>
+          <t>Report.usp_Published_GetMeterExtentedBillingInformation_Updated_BACKUP_NOT_IN_USE</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2598,7 +2598,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlyagencydata</t>
+          <t>Report.usp_Published_GetMonthlyAgencyData</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2617,7 +2617,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlyagencydataonly</t>
+          <t>Report.usp_Published_GetMonthlyAgencyDataOnly</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2636,7 +2636,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlyagencydataonly_desc</t>
+          <t>Report.usp_Published_GetMonthlyAgencyDataOnly_desc</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2655,7 +2655,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlyagencydataonly_upgrade</t>
+          <t>Report.usp_Published_GetMonthlyAgencyDataOnly_Upgrade</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2674,7 +2674,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlyagencyfacilitydata</t>
+          <t>Report.usp_Published_GetMonthlyAgencyFacilityData</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -2693,7 +2693,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlyagencyfacilitydata12month</t>
+          <t>Report.usp_Published_GetMonthlyAgencyFacilityData12month</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2712,7 +2712,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlyagencyfacilitydata2</t>
+          <t>Report.usp_Published_GetMonthlyAgencyFacilityData2</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2731,7 +2731,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>report.usp_published_getmonthlycitywidesummarydata</t>
+          <t>Report.usp_Published_GetMonthlyCitywideSummaryData</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2750,7 +2750,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype</t>
+          <t>Report.usp_Published_LookupTotalDollarsBtusAndRunningTotalCO2ByEnergyType</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2769,7 +2769,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype_corerepforselfac</t>
+          <t>Report.usp_Published_LookupTotalDollarsBtusAndRunningTotalCO2ByEnergyType_CoreRepForSelFac</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2788,7 +2788,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytype_upgrade</t>
+          <t>Report.usp_Published_LookupTotalDollarsBtusAndRunningTotalCO2ByEnergyType_Upgrade</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2807,7 +2807,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytypethreefiscalyears</t>
+          <t>Report.usp_Published_LookupTotalDollarsBtusAndRunningTotalCO2ByEnergyTypeThreeFiscalYears</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2826,7 +2826,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>report.usp_published_lookuptotaldollarsbtusandrunningtotalco2byenergytypethreefiscalyears_updated</t>
+          <t>Report.usp_Published_LookupTotalDollarsBtusAndRunningTotalCO2ByEnergyTypeThreeFiscalYears_Updated</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2845,7 +2845,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>report.usp_published_monthlyfacilitydata_export</t>
+          <t>Report.usp_Published_MonthlyFacilityData_Export</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2864,7 +2864,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>report.usp_published_partiallookupaccountbillingallinfo</t>
+          <t>Report.usp_Published_PartialLookupAccountBillingAllInfo</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2883,7 +2883,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>report.usp_published_partiallookupaccountbillingrevisedonly</t>
+          <t>Report.usp_Published_PartialLookupAccountBillingRevisedOnly</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2902,7 +2902,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>report.usp_published_partiallookupaccountbillingrevisedonly_upgrade</t>
+          <t>Report.usp_Published_PartialLookupAccountBillingRevisedOnly_Upgrade</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2921,7 +2921,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>report.usp_published_partiallookupcurrentaccount</t>
+          <t>Report.usp_Published_PartialLookupCurrentAccount</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2940,7 +2940,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>report.usp_published_usageanddemanddeviationreport</t>
+          <t>Report.usp_Published_UsageandDemandDeviationReport</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2959,7 +2959,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>report.usp_published_usageanddemanddeviationreportdash</t>
+          <t>Report.usp_Published_UsageandDemandDeviationReportDash</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2978,7 +2978,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>report.usp_reportparam_getuserfacilityaccessinxml</t>
+          <t>Report.usp_ReportParam_GetUserFacilityAccessInXML</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2997,7 +2997,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>scheduler.usp_archivereport</t>
+          <t>Scheduler.usp_ArchiveReport</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3016,7 +3016,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>temporal.usp_processandinserttemporaldata</t>
+          <t>Temporal.usp_ProcessAndInsertTemporalData</t>
         </is>
       </c>
       <c r="B137" t="n">
